--- a/Code/Results/Cases/Case_2_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_line/pl_mw.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.390742831773494</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>1.895061171842784</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572853</v>
       </c>
       <c r="G24">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_line/pl_mw.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.390742831773494</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.895061171842784</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.170038921572853</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,8 +456,14 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -468,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -491,8 +503,14 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -532,8 +550,14 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -550,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -573,8 +597,14 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -591,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -614,8 +644,14 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -632,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -655,8 +691,14 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -673,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.390742831773494</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -696,8 +738,14 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -714,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>1.895061171842784</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -737,8 +785,14 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -755,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -778,8 +832,14 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -819,8 +879,14 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -860,8 +926,14 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -878,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -901,8 +973,14 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -942,8 +1020,14 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -983,8 +1067,14 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1024,8 +1114,14 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1065,8 +1161,14 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1106,8 +1208,14 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1147,8 +1255,14 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1188,8 +1302,14 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1229,8 +1349,14 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1247,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1270,8 +1396,14 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1288,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1311,8 +1443,14 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1329,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572853</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1352,8 +1490,14 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.091868006347482</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.0790757818146659</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.05749988328175704</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.7174188735137648</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.5483582781717899</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.5897567944013815</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9521858748755676</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2615213712804945</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.9490254930118454</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.07246503174550867</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.05322365861536582</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.7105090395071585</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.553914007826009</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.5970180419600979</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8259081210420902</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2313693308860962</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.8618268531168383</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.06840965210147942</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.05067101789923356</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.7080315555792964</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.5583405144530786</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.6027176056748189</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7487362809022784</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2131353158791853</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.8264009415865701</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.06675681346111162</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.04964808350998062</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.7074435288842267</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.5603896798110526</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.6053394888539039</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7173620240259169</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2057687664075161</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.8205244917935772</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.06648231416608752</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.04947924013842098</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.7073707204228725</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.5607444783856295</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.6057925635810761</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7121563265496604</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.204549241710609</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.8613486732718059</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.06838736377814314</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.0506571536162852</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.7080219469051485</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.5583671696571173</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.602751770035912</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7483128797662459</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.213035717130424</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1.042498593616585</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.07679491584223541</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.05600963492160105</v>
       </c>
       <c r="F8">
-        <v>1.390742831773494</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.7146561833944958</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.550056999303834</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.5919949350880707</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9085590476249195</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2510630253973574</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.402707556519658</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.09336809543163582</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.06713636001445522</v>
       </c>
       <c r="F9">
-        <v>1.895061171842784</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.7427443581486699</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.5422956744428973</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.5813640945903131</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.226541237444962</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3281587429641917</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.671830325845775</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.1056841477539692</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.07577264846620935</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.7741731626362451</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.5425113287804493</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.5808485761874849</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.463748526137095</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3868017298024711</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1.795584989413925</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1113389569143379</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.07982026755870919</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.7912017517214878</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.544067647690909</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.582419599305446</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.572757182710575</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4140260889736851</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.842670356070556</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1134897642543393</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.08137175851062395</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.7980781507082213</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.5448825118809992</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.5832943632027252</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.614222992210131</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4244240020488377</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1.832519277070759</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.113026095839885</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.08103675590189496</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.7965775644092048</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.5446967197064652</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.5830931805752257</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.605283814724942</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.422180516280136</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.799454091383325</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.1115157038061625</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.07994752408940542</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.791758686008464</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.5441300718238296</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.5824858361756995</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.576164690155764</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4148796952870129</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1.779230607626545</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.1105918373787631</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.07928283035144545</v>
       </c>
       <c r="F15">
         <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.7888638247543582</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.5438128457495708</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.5821508939719635</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.558353563132556</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4104195836636393</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1.663772008303084</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.1053158051185363</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.07551065778848454</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.7731182159287897</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.5424402858440942</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.5807839285781995</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.456649077976778</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3850343986957938</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1.593303622294798</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.1020938237413418</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.07322814226459684</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.7641825659000148</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.5419826006958743</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.580421648262103</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.394558163708638</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.3696084169421425</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.552895190606023</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.1002454087967735</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.07192638807163476</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.7592978371179839</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.5418555834082639</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.5803819145288145</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.358947001790881</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3607866807083724</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1.539233833626412</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.09962033239337131</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.0714874928825715</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.7576866905242241</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.5418355143818445</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.5803968363176963</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.346906355160968</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3578082417108135</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.600792143574068</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.1024363005419957</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.07346996083371593</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.7651071620237815</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.5420171122008099</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.580442618825721</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.401157106090125</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3712452037517977</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1.809159848268337</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.1119590694903962</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.08026693538618446</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.79316219463918</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.5442902566367991</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.5826564633165034</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.584712382185131</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4170216345441276</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1.946651458255843</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.1182388997259096</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.08481927220600838</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.8140113024073088</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.5470987329255905</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.585745160398325</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.705778866156123</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4474610473943841</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1.873138668804131</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.1148814031145946</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.0823789507790309</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.8026413098950798</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.545473166857704</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.5839393073284285</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.641052574339255</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.431163710359769</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1.597406259042174</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.102281454637442</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.07336060209368611</v>
       </c>
       <c r="F24">
-        <v>2.170038921572853</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.7646883682792804</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.5420010867717195</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.5804326145589656</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.398173459302313</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3705050671981525</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1.304586487560073</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.08886685026600105</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.06405114913890841</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.7333735481574308</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.543411071997113</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.5830293702435796</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.139989578173612</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3069864242124396</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.091868006347482</v>
+        <v>0.6084629976340921</v>
       </c>
       <c r="C2">
-        <v>0.0790757818146659</v>
+        <v>0.06128436316929964</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05749988328175704</v>
+        <v>0.08626289677362209</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.7174188735137648</v>
+        <v>1.185236305379831</v>
       </c>
       <c r="H2">
-        <v>0.5483582781717899</v>
+        <v>1.163481456830226</v>
       </c>
       <c r="I2">
-        <v>0.5897567944013815</v>
+        <v>1.154009388848159</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9521858748755676</v>
+        <v>0.390417530626479</v>
       </c>
       <c r="L2">
-        <v>0.2615213712804945</v>
+        <v>0.2173515428299595</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9490254930118454</v>
+        <v>0.5693292127438667</v>
       </c>
       <c r="C3">
-        <v>0.07246503174550867</v>
+        <v>0.0590161716693558</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05322365861536582</v>
+        <v>0.08563889364818777</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.7105090395071585</v>
+        <v>1.192172659259214</v>
       </c>
       <c r="H3">
-        <v>0.553914007826009</v>
+        <v>1.171935428554775</v>
       </c>
       <c r="I3">
-        <v>0.5970180419600979</v>
+        <v>1.163385801421644</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8259081210420902</v>
+        <v>0.35419849425449</v>
       </c>
       <c r="L3">
-        <v>0.2313693308860962</v>
+        <v>0.2102882849231094</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8618268531168383</v>
+        <v>0.5455213825979683</v>
       </c>
       <c r="C4">
-        <v>0.06840965210147942</v>
+        <v>0.05760419518581017</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05067101789923356</v>
+        <v>0.0852968503746574</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.7080315555792964</v>
+        <v>1.197170276363337</v>
       </c>
       <c r="H4">
-        <v>0.5583405144530786</v>
+        <v>1.177644995680595</v>
       </c>
       <c r="I4">
-        <v>0.6027176056748189</v>
+        <v>1.169727700752176</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7487362809022784</v>
+        <v>0.3320555347040965</v>
       </c>
       <c r="L4">
-        <v>0.2131353158791853</v>
+        <v>0.2060716361910551</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8264009415865701</v>
+        <v>0.5358754469863811</v>
       </c>
       <c r="C5">
-        <v>0.06675681346111162</v>
+        <v>0.05702394316969617</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04964808350998062</v>
+        <v>0.08516781551899832</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.7074435288842267</v>
+        <v>1.199392315398313</v>
       </c>
       <c r="H5">
-        <v>0.5603896798110526</v>
+        <v>1.180102126618863</v>
       </c>
       <c r="I5">
-        <v>0.6053394888539039</v>
+        <v>1.172459016779648</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7173620240259169</v>
+        <v>0.3230565135253585</v>
       </c>
       <c r="L5">
-        <v>0.2057687664075161</v>
+        <v>0.2043835887605923</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8205244917935772</v>
+        <v>0.5342771409589204</v>
       </c>
       <c r="C6">
-        <v>0.06648231416608752</v>
+        <v>0.05692729900973603</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04947924013842098</v>
+        <v>0.08514701501025357</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.7073707204228725</v>
+        <v>1.199772477150276</v>
       </c>
       <c r="H6">
-        <v>0.5607444783856295</v>
+        <v>1.180518008807184</v>
       </c>
       <c r="I6">
-        <v>0.6057925635810761</v>
+        <v>1.172921421706793</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7121563265496604</v>
+        <v>0.3215637180787354</v>
       </c>
       <c r="L6">
-        <v>0.204549241710609</v>
+        <v>0.2041051192945531</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8613486732718059</v>
+        <v>0.5453910669257311</v>
       </c>
       <c r="C7">
-        <v>0.06838736377814314</v>
+        <v>0.0575963893927991</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0506571536162852</v>
+        <v>0.08529506823448685</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.7080219469051485</v>
+        <v>1.197199492967059</v>
       </c>
       <c r="H7">
-        <v>0.5583671696571173</v>
+        <v>1.17767760530576</v>
       </c>
       <c r="I7">
-        <v>0.602751770035912</v>
+        <v>1.169763941411585</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7483128797662459</v>
+        <v>0.3319340714280656</v>
       </c>
       <c r="L7">
-        <v>0.213035717130424</v>
+        <v>0.2060487479709536</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.042498593616585</v>
+        <v>0.5949242006181237</v>
       </c>
       <c r="C8">
-        <v>0.07679491584223541</v>
+        <v>0.06050629080995407</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05600963492160105</v>
+        <v>0.08603922016225241</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.7146561833944958</v>
+        <v>1.1874744833367</v>
       </c>
       <c r="H8">
-        <v>0.550056999303834</v>
+        <v>1.166288698749952</v>
       </c>
       <c r="I8">
-        <v>0.5919949350880707</v>
+        <v>1.157120953129926</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9085590476249195</v>
+        <v>0.3779095506611441</v>
       </c>
       <c r="L8">
-        <v>0.2510630253973574</v>
+        <v>0.2148912014448854</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.402707556519658</v>
+        <v>0.6937910124604798</v>
       </c>
       <c r="C9">
-        <v>0.09336809543163582</v>
+        <v>0.06606006013595334</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06713636001445522</v>
+        <v>0.08782404619279305</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.7427443581486699</v>
+        <v>1.174277872801255</v>
       </c>
       <c r="H9">
-        <v>0.5422956744428973</v>
+        <v>1.148072590491495</v>
       </c>
       <c r="I9">
-        <v>0.5813640945903131</v>
+        <v>1.136972405237181</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.226541237444962</v>
+        <v>0.4688156514103241</v>
       </c>
       <c r="L9">
-        <v>0.3281587429641917</v>
+        <v>0.2331845079563664</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.671830325845775</v>
+        <v>0.7674700932698784</v>
       </c>
       <c r="C10">
-        <v>0.1056841477539692</v>
+        <v>0.07004857036520207</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07577264846620935</v>
+        <v>0.08933335343022364</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.7741731626362451</v>
+        <v>1.168182523059812</v>
       </c>
       <c r="H10">
-        <v>0.5425113287804493</v>
+        <v>1.137201239682355</v>
       </c>
       <c r="I10">
-        <v>0.5808485761874849</v>
+        <v>1.125007280633397</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.463748526137095</v>
+        <v>0.5360531758874458</v>
       </c>
       <c r="L10">
-        <v>0.3868017298024711</v>
+        <v>0.2472066757263605</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.795584989413925</v>
+        <v>0.8012122772076395</v>
       </c>
       <c r="C11">
-        <v>0.1113389569143379</v>
+        <v>0.07184337261864471</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07982026755870919</v>
+        <v>0.09006288811521657</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.7912017517214878</v>
+        <v>1.166195543792156</v>
       </c>
       <c r="H11">
-        <v>0.544067647690909</v>
+        <v>1.132801498720781</v>
       </c>
       <c r="I11">
-        <v>0.582419599305446</v>
+        <v>1.120181769133779</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.572757182710575</v>
+        <v>0.5667376476852155</v>
       </c>
       <c r="L11">
-        <v>0.4140260889736851</v>
+        <v>0.2537124279309353</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.842670356070556</v>
+        <v>0.8140215634044523</v>
       </c>
       <c r="C12">
-        <v>0.1134897642543393</v>
+        <v>0.07252021430925026</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.08137175851062395</v>
+        <v>0.09034530703496202</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.7980781507082213</v>
+        <v>1.16555645358541</v>
       </c>
       <c r="H12">
-        <v>0.5448825118809992</v>
+        <v>1.131213940935979</v>
       </c>
       <c r="I12">
-        <v>0.5832943632027252</v>
+        <v>1.118443390710375</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.614222992210131</v>
+        <v>0.5783708744558851</v>
       </c>
       <c r="L12">
-        <v>0.4244240020488377</v>
+        <v>0.2561942368464969</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.832519277070759</v>
+        <v>0.811261446142197</v>
       </c>
       <c r="C13">
-        <v>0.113026095839885</v>
+        <v>0.07237456925913932</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08103675590189496</v>
+        <v>0.09028420934336268</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.7965775644092048</v>
+        <v>1.165689047129788</v>
       </c>
       <c r="H13">
-        <v>0.5446967197064652</v>
+        <v>1.1315523563825</v>
       </c>
       <c r="I13">
-        <v>0.5830931805752257</v>
+        <v>1.118813823757414</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.605283814724942</v>
+        <v>0.5758648483445938</v>
       </c>
       <c r="L13">
-        <v>0.422180516280136</v>
+        <v>0.2556589251153554</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.799454091383325</v>
+        <v>0.8022654695242011</v>
       </c>
       <c r="C14">
-        <v>0.1115157038061625</v>
+        <v>0.07189911309127694</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07994752408940542</v>
+        <v>0.09008599952183971</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.791758686008464</v>
+        <v>1.16614069212288</v>
       </c>
       <c r="H14">
-        <v>0.5441300718238296</v>
+        <v>1.132669315216233</v>
       </c>
       <c r="I14">
-        <v>0.5824858361756995</v>
+        <v>1.120036968414468</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.576164690155764</v>
+        <v>0.5676944481744215</v>
       </c>
       <c r="L14">
-        <v>0.4148796952870129</v>
+        <v>0.2539162428833208</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.779230607626545</v>
+        <v>0.7967593066862548</v>
       </c>
       <c r="C15">
-        <v>0.1105918373787631</v>
+        <v>0.07160751657507092</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07928283035144545</v>
+        <v>0.08996539204141385</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.7888638247543582</v>
+        <v>1.166432107311152</v>
       </c>
       <c r="H15">
-        <v>0.5438128457495708</v>
+        <v>1.133363713257708</v>
       </c>
       <c r="I15">
-        <v>0.5821508939719635</v>
+        <v>1.12079776649076</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.558353563132556</v>
+        <v>0.5626916129522215</v>
       </c>
       <c r="L15">
-        <v>0.4104195836636393</v>
+        <v>0.252851171512134</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.663772008303084</v>
+        <v>0.7652694483964808</v>
       </c>
       <c r="C16">
-        <v>0.1053158051185363</v>
+        <v>0.06993088212145437</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07551065778848454</v>
+        <v>0.08928653944910891</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.7731182159287897</v>
+        <v>1.168328218291848</v>
       </c>
       <c r="H16">
-        <v>0.5424402858440942</v>
+        <v>1.137499758822969</v>
       </c>
       <c r="I16">
-        <v>0.5807839285781995</v>
+        <v>1.125335076869362</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.456649077976778</v>
+        <v>0.5340498087755066</v>
       </c>
       <c r="L16">
-        <v>0.3850343986957938</v>
+        <v>0.2467840615839947</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.593303622294798</v>
+        <v>0.746008741064486</v>
       </c>
       <c r="C17">
-        <v>0.1020938237413418</v>
+        <v>0.06889730780996217</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07322814226459684</v>
+        <v>0.08888107332995077</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.7641825659000148</v>
+        <v>1.169692928252047</v>
       </c>
       <c r="H17">
-        <v>0.5419826006958743</v>
+        <v>1.140176895115303</v>
       </c>
       <c r="I17">
-        <v>0.580421648262103</v>
+        <v>1.128276825072831</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.394558163708638</v>
+        <v>0.5165037645626853</v>
       </c>
       <c r="L17">
-        <v>0.3696084169421425</v>
+        <v>0.243094584547606</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.552895190606023</v>
+        <v>0.7349517200042044</v>
       </c>
       <c r="C18">
-        <v>0.1002454087967735</v>
+        <v>0.068300978820659</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07192638807163476</v>
+        <v>0.08865190287335878</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.7592978371179839</v>
+        <v>1.170551818972569</v>
       </c>
       <c r="H18">
-        <v>0.5418555834082639</v>
+        <v>1.141768072554257</v>
       </c>
       <c r="I18">
-        <v>0.5803819145288145</v>
+        <v>1.130026952650915</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.358947001790881</v>
+        <v>0.5064209703550944</v>
       </c>
       <c r="L18">
-        <v>0.3607866807083724</v>
+        <v>0.240984450974679</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.539233833626412</v>
+        <v>0.7312116648722338</v>
       </c>
       <c r="C19">
-        <v>0.09962033239337131</v>
+        <v>0.06809875511106611</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0714874928825715</v>
+        <v>0.08857500453586908</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.7576866905242241</v>
+        <v>1.17085531464258</v>
       </c>
       <c r="H19">
-        <v>0.5418355143818445</v>
+        <v>1.142315637149281</v>
       </c>
       <c r="I19">
-        <v>0.5803968363176963</v>
+        <v>1.130629492138411</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.346906355160968</v>
+        <v>0.5030087056903199</v>
       </c>
       <c r="L19">
-        <v>0.3578082417108135</v>
+        <v>0.240272050697186</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.600792143574068</v>
+        <v>0.7480568830374636</v>
       </c>
       <c r="C20">
-        <v>0.1024363005419957</v>
+        <v>0.06900752440244418</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07346996083371593</v>
+        <v>0.08892381757287282</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.7651071620237815</v>
+        <v>1.169539997019456</v>
       </c>
       <c r="H20">
-        <v>0.5420171122008099</v>
+        <v>1.139886593447329</v>
       </c>
       <c r="I20">
-        <v>0.580442618825721</v>
+        <v>1.127957655549196</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.401157106090125</v>
+        <v>0.5183706187802954</v>
       </c>
       <c r="L20">
-        <v>0.3712452037517977</v>
+        <v>0.2434860985654126</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.809159848268337</v>
+        <v>0.8049069456337179</v>
       </c>
       <c r="C21">
-        <v>0.1119590694903962</v>
+        <v>0.07203884233253177</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08026693538618446</v>
+        <v>0.0901440514926044</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.79316219463918</v>
+        <v>1.166004954474147</v>
       </c>
       <c r="H21">
-        <v>0.5442902566367991</v>
+        <v>1.132339105613866</v>
       </c>
       <c r="I21">
-        <v>0.5826564633165034</v>
+        <v>1.11967528627202</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.584712382185131</v>
+        <v>0.5700939243953087</v>
       </c>
       <c r="L21">
-        <v>0.4170216345441276</v>
+        <v>0.2544276166860726</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.946651458255843</v>
+        <v>0.8422471710227626</v>
       </c>
       <c r="C22">
-        <v>0.1182388997259096</v>
+        <v>0.07400360234400694</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.08481927220600838</v>
+        <v>0.09097744286129483</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.8140113024073088</v>
+        <v>1.164355362292653</v>
       </c>
       <c r="H22">
-        <v>0.5470987329255905</v>
+        <v>1.127864138756166</v>
       </c>
       <c r="I22">
-        <v>0.585745160398325</v>
+        <v>1.114780745492475</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.705778866156123</v>
+        <v>0.6039776779192323</v>
       </c>
       <c r="L22">
-        <v>0.4474610473943841</v>
+        <v>0.2616847229710686</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.873138668804131</v>
+        <v>0.8223011978688817</v>
       </c>
       <c r="C23">
-        <v>0.1148814031145946</v>
+        <v>0.07295646976369596</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0823789507790309</v>
+        <v>0.09052936655799115</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.8026413098950798</v>
+        <v>1.165175210314032</v>
       </c>
       <c r="H23">
-        <v>0.545473166857704</v>
+        <v>1.130210608755007</v>
       </c>
       <c r="I23">
-        <v>0.5839393073284285</v>
+        <v>1.117345566471592</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.641052574339255</v>
+        <v>0.5858861231597814</v>
       </c>
       <c r="L23">
-        <v>0.431163710359769</v>
+        <v>0.2578017655150973</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.597406259042174</v>
+        <v>0.7471308675012551</v>
       </c>
       <c r="C24">
-        <v>0.102281454637442</v>
+        <v>0.06895770206501339</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07336060209368611</v>
+        <v>0.08890448063530343</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.7646883682792804</v>
+        <v>1.169608905808417</v>
       </c>
       <c r="H24">
-        <v>0.5420010867717195</v>
+        <v>1.140017676679065</v>
       </c>
       <c r="I24">
-        <v>0.5804326145589656</v>
+        <v>1.128101768697732</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.398173459302313</v>
+        <v>0.5175265994453468</v>
       </c>
       <c r="L24">
-        <v>0.3705050671981525</v>
+        <v>0.2433090608256521</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.304586487560073</v>
+        <v>0.6668609646306436</v>
       </c>
       <c r="C25">
-        <v>0.08886685026600105</v>
+        <v>0.06457383069820821</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06405114913890841</v>
+        <v>0.08730639983112454</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.7333735481574308</v>
+        <v>1.177217057977501</v>
       </c>
       <c r="H25">
-        <v>0.543411071997113</v>
+        <v>1.152559531239945</v>
       </c>
       <c r="I25">
-        <v>0.5830293702435796</v>
+        <v>1.141925222516107</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.139989578173612</v>
+        <v>0.4441438060311214</v>
       </c>
       <c r="L25">
-        <v>0.3069864242124396</v>
+        <v>0.2281335332629055</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6084629976340921</v>
+        <v>1.091868006347568</v>
       </c>
       <c r="C2">
-        <v>0.06128436316929964</v>
+        <v>0.07907578181487906</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08626289677362209</v>
+        <v>0.05749988328176769</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>1.185236305379831</v>
+        <v>0.7174188735137932</v>
       </c>
       <c r="H2">
-        <v>1.163481456830226</v>
+        <v>0.5483582781717757</v>
       </c>
       <c r="I2">
-        <v>1.154009388848159</v>
+        <v>0.5897567944013744</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.390417530626479</v>
+        <v>0.9521858748754539</v>
       </c>
       <c r="L2">
-        <v>0.2173515428299595</v>
+        <v>0.2615213712806224</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5693292127438667</v>
+        <v>0.9490254930119306</v>
       </c>
       <c r="C3">
-        <v>0.0590161716693558</v>
+        <v>0.07246503174583552</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08563889364818777</v>
+        <v>0.05322365861536937</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>1.192172659259214</v>
+        <v>0.7105090395071016</v>
       </c>
       <c r="H3">
-        <v>1.171935428554775</v>
+        <v>0.5539140078261227</v>
       </c>
       <c r="I3">
-        <v>1.163385801421644</v>
+        <v>0.5970180419600766</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.35419849425449</v>
+        <v>0.8259081210422039</v>
       </c>
       <c r="L3">
-        <v>0.2102882849231094</v>
+        <v>0.231369330886011</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5455213825979683</v>
+        <v>0.8618268531170088</v>
       </c>
       <c r="C4">
-        <v>0.05760419518581017</v>
+        <v>0.0684096521017139</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0852968503746574</v>
+        <v>0.0506710178992158</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>1.197170276363337</v>
+        <v>0.7080315555791685</v>
       </c>
       <c r="H4">
-        <v>1.177644995680595</v>
+        <v>0.5583405144530786</v>
       </c>
       <c r="I4">
-        <v>1.169727700752176</v>
+        <v>0.6027176056748083</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3320555347040965</v>
+        <v>0.7487362809023352</v>
       </c>
       <c r="L4">
-        <v>0.2060716361910551</v>
+        <v>0.2131353158791427</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5358754469863811</v>
+        <v>0.8264009415865701</v>
       </c>
       <c r="C5">
-        <v>0.05702394316969617</v>
+        <v>0.0667568134606995</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08516781551899832</v>
+        <v>0.04964808350998595</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>1.199392315398313</v>
+        <v>0.7074435288842835</v>
       </c>
       <c r="H5">
-        <v>1.180102126618863</v>
+        <v>0.5603896798110526</v>
       </c>
       <c r="I5">
-        <v>1.172459016779648</v>
+        <v>0.6053394888539003</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3230565135253585</v>
+        <v>0.7173620240257748</v>
       </c>
       <c r="L5">
-        <v>0.2043835887605923</v>
+        <v>0.205768766407445</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5342771409589204</v>
+        <v>0.8205244917934067</v>
       </c>
       <c r="C6">
-        <v>0.05692729900973603</v>
+        <v>0.06648231416589567</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08514701501025357</v>
+        <v>0.04947924013841032</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>1.199772477150276</v>
+        <v>0.7073707204228157</v>
       </c>
       <c r="H6">
-        <v>1.180518008807184</v>
+        <v>0.56074447838553</v>
       </c>
       <c r="I6">
-        <v>1.172921421706793</v>
+        <v>0.6057925635810868</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3215637180787354</v>
+        <v>0.7121563265496604</v>
       </c>
       <c r="L6">
-        <v>0.2041051192945531</v>
+        <v>0.2045492417105805</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5453910669257311</v>
+        <v>0.8613486732717774</v>
       </c>
       <c r="C7">
-        <v>0.0575963893927991</v>
+        <v>0.06838736377812182</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08529506823448685</v>
+        <v>0.0506571536162852</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>1.197199492967059</v>
+        <v>0.7080219469050917</v>
       </c>
       <c r="H7">
-        <v>1.17767760530576</v>
+        <v>0.5583671696570178</v>
       </c>
       <c r="I7">
-        <v>1.169763941411585</v>
+        <v>0.6027517700359084</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3319340714280656</v>
+        <v>0.7483128797663312</v>
       </c>
       <c r="L7">
-        <v>0.2060487479709536</v>
+        <v>0.2130357171304524</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5949242006181237</v>
+        <v>1.042498593616557</v>
       </c>
       <c r="C8">
-        <v>0.06050629080995407</v>
+        <v>0.07679491584190146</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08603922016225241</v>
+        <v>0.05600963492158328</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>1.1874744833367</v>
+        <v>0.7146561833944958</v>
       </c>
       <c r="H8">
-        <v>1.166288698749952</v>
+        <v>0.550056999303834</v>
       </c>
       <c r="I8">
-        <v>1.157120953129926</v>
+        <v>0.5919949350880991</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3779095506611441</v>
+        <v>0.9085590476249479</v>
       </c>
       <c r="L8">
-        <v>0.2148912014448854</v>
+        <v>0.2510630253973432</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6937910124604798</v>
+        <v>1.402707556519772</v>
       </c>
       <c r="C9">
-        <v>0.06606006013595334</v>
+        <v>0.09336809543174951</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08782404619279305</v>
+        <v>0.06713636001447654</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>1.174277872801255</v>
+        <v>0.7427443581487125</v>
       </c>
       <c r="H9">
-        <v>1.148072590491495</v>
+        <v>0.5422956744428973</v>
       </c>
       <c r="I9">
-        <v>1.136972405237181</v>
+        <v>0.5813640945902918</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4688156514103241</v>
+        <v>1.226541237445019</v>
       </c>
       <c r="L9">
-        <v>0.2331845079563664</v>
+        <v>0.3281587429641775</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7674700932698784</v>
+        <v>1.671830325845633</v>
       </c>
       <c r="C10">
-        <v>0.07004857036520207</v>
+        <v>0.1056841477540758</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08933335343022364</v>
+        <v>0.07577264846620579</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>1.168182523059812</v>
+        <v>0.7741731626362025</v>
       </c>
       <c r="H10">
-        <v>1.137201239682355</v>
+        <v>0.5425113287804635</v>
       </c>
       <c r="I10">
-        <v>1.125007280633397</v>
+        <v>0.5808485761874778</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5360531758874458</v>
+        <v>1.463748526137181</v>
       </c>
       <c r="L10">
-        <v>0.2472066757263605</v>
+        <v>0.3868017298023858</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8012122772076395</v>
+        <v>1.795584989413896</v>
       </c>
       <c r="C11">
-        <v>0.07184337261864471</v>
+        <v>0.1113389569144232</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09006288811521657</v>
+        <v>0.07982026755870564</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.166195543792156</v>
+        <v>0.7912017517215446</v>
       </c>
       <c r="H11">
-        <v>1.132801498720781</v>
+        <v>0.5440676476910227</v>
       </c>
       <c r="I11">
-        <v>1.120181769133779</v>
+        <v>0.5824195993054389</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5667376476852155</v>
+        <v>1.57275718271049</v>
       </c>
       <c r="L11">
-        <v>0.2537124279309353</v>
+        <v>0.4140260889737419</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8140215634044523</v>
+        <v>1.842670356070556</v>
       </c>
       <c r="C12">
-        <v>0.07252021430925026</v>
+        <v>0.1134897642540835</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09034530703496202</v>
+        <v>0.08137175851063816</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>1.16555645358541</v>
+        <v>0.7980781507081218</v>
       </c>
       <c r="H12">
-        <v>1.131213940935979</v>
+        <v>0.5448825118809992</v>
       </c>
       <c r="I12">
-        <v>1.118443390710375</v>
+        <v>0.5832943632027181</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5783708744558851</v>
+        <v>1.614222992210131</v>
       </c>
       <c r="L12">
-        <v>0.2561942368464969</v>
+        <v>0.4244240020488803</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.811261446142197</v>
+        <v>1.832519277070901</v>
       </c>
       <c r="C13">
-        <v>0.07237456925913932</v>
+        <v>0.113026095839885</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.09028420934336268</v>
+        <v>0.08103675590188431</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.165689047129788</v>
+        <v>0.7965775644092474</v>
       </c>
       <c r="H13">
-        <v>1.1315523563825</v>
+        <v>0.5446967197065788</v>
       </c>
       <c r="I13">
-        <v>1.118813823757414</v>
+        <v>0.58309318057524</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5758648483445938</v>
+        <v>1.605283814724828</v>
       </c>
       <c r="L13">
-        <v>0.2556589251153554</v>
+        <v>0.422180516280136</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8022654695242011</v>
+        <v>1.799454091383382</v>
       </c>
       <c r="C14">
-        <v>0.07189911309127694</v>
+        <v>0.111515703806262</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09008599952183971</v>
+        <v>0.07994752408938055</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.16614069212288</v>
+        <v>0.7917586860084072</v>
       </c>
       <c r="H14">
-        <v>1.132669315216233</v>
+        <v>0.5441300718238296</v>
       </c>
       <c r="I14">
-        <v>1.120036968414468</v>
+        <v>0.5824858361757137</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5676944481744215</v>
+        <v>1.576164690155622</v>
       </c>
       <c r="L14">
-        <v>0.2539162428833208</v>
+        <v>0.4148796952869702</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7967593066862548</v>
+        <v>1.779230607626403</v>
       </c>
       <c r="C15">
-        <v>0.07160751657507092</v>
+        <v>0.1105918373785357</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.08996539204141385</v>
+        <v>0.07928283035146322</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>1.166432107311152</v>
+        <v>0.7888638247543867</v>
       </c>
       <c r="H15">
-        <v>1.133363713257708</v>
+        <v>0.5438128457495708</v>
       </c>
       <c r="I15">
-        <v>1.12079776649076</v>
+        <v>0.5821508939719848</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5626916129522215</v>
+        <v>1.558353563132528</v>
       </c>
       <c r="L15">
-        <v>0.252851171512134</v>
+        <v>0.4104195836636109</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7652694483964808</v>
+        <v>1.663772008303113</v>
       </c>
       <c r="C16">
-        <v>0.06993088212145437</v>
+        <v>0.1053158051184013</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08928653944910891</v>
+        <v>0.07551065778853427</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>1.168328218291848</v>
+        <v>0.7731182159288892</v>
       </c>
       <c r="H16">
-        <v>1.137499758822969</v>
+        <v>0.5424402858442079</v>
       </c>
       <c r="I16">
-        <v>1.125335076869362</v>
+        <v>0.5807839285781924</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5340498087755066</v>
+        <v>1.456649077976778</v>
       </c>
       <c r="L16">
-        <v>0.2467840615839947</v>
+        <v>0.3850343986957654</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.746008741064486</v>
+        <v>1.593303622294883</v>
       </c>
       <c r="C17">
-        <v>0.06889730780996217</v>
+        <v>0.1020938237408515</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.08888107332995077</v>
+        <v>0.07322814226461105</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>1.169692928252047</v>
+        <v>0.7641825659000148</v>
       </c>
       <c r="H17">
-        <v>1.140176895115303</v>
+        <v>0.5419826006958743</v>
       </c>
       <c r="I17">
-        <v>1.128276825072831</v>
+        <v>0.5804216482620959</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5165037645626853</v>
+        <v>1.394558163708581</v>
       </c>
       <c r="L17">
-        <v>0.243094584547606</v>
+        <v>0.3696084169421567</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7349517200042044</v>
+        <v>1.552895190606222</v>
       </c>
       <c r="C18">
-        <v>0.068300978820659</v>
+        <v>0.1002454087967308</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.08865190287335878</v>
+        <v>0.07192638807162055</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.170551818972569</v>
+        <v>0.7592978371179413</v>
       </c>
       <c r="H18">
-        <v>1.141768072554257</v>
+        <v>0.5418555834082781</v>
       </c>
       <c r="I18">
-        <v>1.130026952650915</v>
+        <v>0.58038191452885</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5064209703550944</v>
+        <v>1.358947001790824</v>
       </c>
       <c r="L18">
-        <v>0.240984450974679</v>
+        <v>0.3607866807083724</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7312116648722338</v>
+        <v>1.539233833626213</v>
       </c>
       <c r="C19">
-        <v>0.06809875511106611</v>
+        <v>0.0996203323934779</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.08857500453586908</v>
+        <v>0.0714874928825644</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.17085531464258</v>
+        <v>0.7576866905242525</v>
       </c>
       <c r="H19">
-        <v>1.142315637149281</v>
+        <v>0.5418355143819582</v>
       </c>
       <c r="I19">
-        <v>1.130629492138411</v>
+        <v>0.5803968363177034</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5030087056903199</v>
+        <v>1.346906355161025</v>
       </c>
       <c r="L19">
-        <v>0.240272050697186</v>
+        <v>0.3578082417108135</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7480568830374636</v>
+        <v>1.600792143574097</v>
       </c>
       <c r="C20">
-        <v>0.06900752440244418</v>
+        <v>0.1024363005423368</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.08892381757287282</v>
+        <v>0.07346996083375146</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.169539997019456</v>
+        <v>0.7651071620237246</v>
       </c>
       <c r="H20">
-        <v>1.139886593447329</v>
+        <v>0.542017112200682</v>
       </c>
       <c r="I20">
-        <v>1.127957655549196</v>
+        <v>0.5804426188257068</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5183706187802954</v>
+        <v>1.401157106090153</v>
       </c>
       <c r="L20">
-        <v>0.2434860985654126</v>
+        <v>0.3712452037518261</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8049069456337179</v>
+        <v>1.809159848268337</v>
       </c>
       <c r="C21">
-        <v>0.07203884233253177</v>
+        <v>0.1119590694902683</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0901440514926044</v>
+        <v>0.08026693538617735</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.166004954474147</v>
+        <v>0.79316219463918</v>
       </c>
       <c r="H21">
-        <v>1.132339105613866</v>
+        <v>0.5442902566367849</v>
       </c>
       <c r="I21">
-        <v>1.11967528627202</v>
+        <v>0.5826564633165177</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5700939243953087</v>
+        <v>1.584712382185131</v>
       </c>
       <c r="L21">
-        <v>0.2544276166860726</v>
+        <v>0.4170216345440565</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8422471710227626</v>
+        <v>1.9466514582559</v>
       </c>
       <c r="C22">
-        <v>0.07400360234400694</v>
+        <v>0.1182388997257959</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09097744286129483</v>
+        <v>0.0848192722059764</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>1.164355362292653</v>
+        <v>0.8140113024073798</v>
       </c>
       <c r="H22">
-        <v>1.127864138756166</v>
+        <v>0.5470987329257042</v>
       </c>
       <c r="I22">
-        <v>1.114780745492475</v>
+        <v>0.5857451603983392</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6039776779192323</v>
+        <v>1.705778866156152</v>
       </c>
       <c r="L22">
-        <v>0.2616847229710686</v>
+        <v>0.4474610473943841</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8223011978688817</v>
+        <v>1.873138668804131</v>
       </c>
       <c r="C23">
-        <v>0.07295646976369596</v>
+        <v>0.1148814031147225</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09052936655799115</v>
+        <v>0.08237895077902024</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>1.165175210314032</v>
+        <v>0.8026413098950798</v>
       </c>
       <c r="H23">
-        <v>1.130210608755007</v>
+        <v>0.545473166857704</v>
       </c>
       <c r="I23">
-        <v>1.117345566471592</v>
+        <v>0.5839393073284356</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5858861231597814</v>
+        <v>1.641052574339227</v>
       </c>
       <c r="L23">
-        <v>0.2578017655150973</v>
+        <v>0.4311637103597121</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7471308675012551</v>
+        <v>1.597406259042145</v>
       </c>
       <c r="C24">
-        <v>0.06895770206501339</v>
+        <v>0.1022814546374278</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.08890448063530343</v>
+        <v>0.07336060209363637</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.169608905808417</v>
+        <v>0.7646883682792662</v>
       </c>
       <c r="H24">
-        <v>1.140017676679065</v>
+        <v>0.5420010867717195</v>
       </c>
       <c r="I24">
-        <v>1.128101768697732</v>
+        <v>0.5804326145589584</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5175265994453468</v>
+        <v>1.398173459302228</v>
       </c>
       <c r="L24">
-        <v>0.2433090608256521</v>
+        <v>0.370505067198124</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6668609646306436</v>
+        <v>1.304586487560385</v>
       </c>
       <c r="C25">
-        <v>0.06457383069820821</v>
+        <v>0.08886685026649133</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.08730639983112454</v>
+        <v>0.06405114913889776</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>1.177217057977501</v>
+        <v>0.7333735481574166</v>
       </c>
       <c r="H25">
-        <v>1.152559531239945</v>
+        <v>0.5434110719969993</v>
       </c>
       <c r="I25">
-        <v>1.141925222516107</v>
+        <v>0.5830293702435938</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4441438060311214</v>
+        <v>1.139989578173555</v>
       </c>
       <c r="L25">
-        <v>0.2281335332629055</v>
+        <v>0.3069864242124112</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.091868006347568</v>
+        <v>3.480687265789243</v>
       </c>
       <c r="C2">
-        <v>0.07907578181487906</v>
+        <v>1.165017874056105</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05749988328176769</v>
+        <v>1.356783115317384</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.7174188735137932</v>
+        <v>0.5470122958727899</v>
       </c>
       <c r="H2">
-        <v>0.5483582781717757</v>
+        <v>0.01148004009252734</v>
       </c>
       <c r="I2">
-        <v>0.5897567944013744</v>
+        <v>0.004972642914652603</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.373390404073902</v>
       </c>
       <c r="K2">
-        <v>0.9521858748754539</v>
+        <v>0.2218314440370932</v>
       </c>
       <c r="L2">
-        <v>0.2615213712806224</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,43 +468,49 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9490254930119306</v>
+        <v>3.030712987717664</v>
       </c>
       <c r="C3">
-        <v>0.07246503174583552</v>
+        <v>1.01708493056492</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05322365861536937</v>
+        <v>1.178868447527876</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.7105090395071016</v>
+        <v>0.4978083690964752</v>
       </c>
       <c r="H3">
-        <v>0.5539140078261227</v>
+        <v>0.007880425163070026</v>
       </c>
       <c r="I3">
-        <v>0.5970180419600766</v>
+        <v>0.002845570953940779</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3568810040201669</v>
       </c>
       <c r="K3">
-        <v>0.8259081210422039</v>
+        <v>0.2250280156907678</v>
       </c>
       <c r="L3">
-        <v>0.231369330886011</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -509,43 +521,49 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8618268531170088</v>
+        <v>2.75445023678725</v>
       </c>
       <c r="C4">
-        <v>0.0684096521017139</v>
+        <v>0.9269315835264251</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0506710178992158</v>
+        <v>1.070180527340085</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.7080315555791685</v>
+        <v>0.468318044286022</v>
       </c>
       <c r="H4">
-        <v>0.5583405144530786</v>
+        <v>0.005950816572760198</v>
       </c>
       <c r="I4">
-        <v>0.6027176056748083</v>
+        <v>0.001864313413996843</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3471807599520389</v>
       </c>
       <c r="K4">
-        <v>0.7487362809023352</v>
+        <v>0.2274066533306254</v>
       </c>
       <c r="L4">
-        <v>0.2131353158791427</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -556,43 +574,49 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8264009415865701</v>
+        <v>2.641806664015064</v>
       </c>
       <c r="C5">
-        <v>0.0667568134606995</v>
+        <v>0.8914593353469513</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04964808350998595</v>
+        <v>1.02597672605269</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.7074435288842835</v>
+        <v>0.4548034563512857</v>
       </c>
       <c r="H5">
-        <v>0.5603896798110526</v>
+        <v>0.005227076371853157</v>
       </c>
       <c r="I5">
-        <v>0.6053394888539003</v>
+        <v>0.001597028870523598</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3424660253119924</v>
       </c>
       <c r="K5">
-        <v>0.7173620240257748</v>
+        <v>0.2277059678181175</v>
       </c>
       <c r="L5">
-        <v>0.205768766407445</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -603,43 +627,49 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8205244917934067</v>
+        <v>2.623054163629092</v>
       </c>
       <c r="C6">
-        <v>0.06648231416589567</v>
+        <v>0.8869481982920888</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04947924013841032</v>
+        <v>1.018615488842627</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.7073707204228157</v>
+        <v>0.4505503712937582</v>
       </c>
       <c r="H6">
-        <v>0.56074447838553</v>
+        <v>0.00510830014669339</v>
       </c>
       <c r="I6">
-        <v>0.6057925635810868</v>
+        <v>0.001635068733910394</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.340638942917181</v>
       </c>
       <c r="K6">
-        <v>0.7121563265496604</v>
+        <v>0.2268299441824588</v>
       </c>
       <c r="L6">
-        <v>0.2045492417105805</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -650,43 +680,49 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8613486732717774</v>
+        <v>2.752803803254096</v>
       </c>
       <c r="C7">
-        <v>0.06838736377812182</v>
+        <v>0.930206682621872</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0506571536162852</v>
+        <v>1.06950910439015</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.7080219469050917</v>
+        <v>0.4626109905974545</v>
       </c>
       <c r="H7">
-        <v>0.5583671696570178</v>
+        <v>0.005933988277516788</v>
       </c>
       <c r="I7">
-        <v>0.6027517700359084</v>
+        <v>0.002057360047779788</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3442465785992823</v>
       </c>
       <c r="K7">
-        <v>0.7483128797663312</v>
+        <v>0.2248640360397616</v>
       </c>
       <c r="L7">
-        <v>0.2130357171304524</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -697,43 +733,49 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.042498593616557</v>
+        <v>3.32532873085546</v>
       </c>
       <c r="C8">
-        <v>0.07679491584190146</v>
+        <v>1.11887427653653</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05600963492158328</v>
+        <v>1.295201315638849</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.7146561833944958</v>
+        <v>0.5225373852814243</v>
       </c>
       <c r="H8">
-        <v>0.550056999303834</v>
+        <v>0.01016582888847649</v>
       </c>
       <c r="I8">
-        <v>0.5919949350880991</v>
+        <v>0.004394329062533231</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.36380012028404</v>
       </c>
       <c r="K8">
-        <v>0.9085590476249479</v>
+        <v>0.2194818837585295</v>
       </c>
       <c r="L8">
-        <v>0.2510630253973432</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -744,43 +786,49 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.402707556519772</v>
+        <v>4.450152264314681</v>
       </c>
       <c r="C9">
-        <v>0.09336809543174951</v>
+        <v>1.488545940388406</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06713636001447654</v>
+        <v>1.743734362799472</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.7427443581487125</v>
+        <v>0.6569535100035608</v>
       </c>
       <c r="H9">
-        <v>0.5422956744428973</v>
+        <v>0.02099581471300405</v>
       </c>
       <c r="I9">
-        <v>0.5813640945902918</v>
+        <v>0.01160827705098644</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.4113118426199804</v>
       </c>
       <c r="K9">
-        <v>1.226541237445019</v>
+        <v>0.2172193552174946</v>
       </c>
       <c r="L9">
-        <v>0.3281587429641775</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -791,43 +839,49 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.671830325845633</v>
+        <v>5.278512675138415</v>
       </c>
       <c r="C10">
-        <v>0.1056841477540758</v>
+        <v>1.756782854452354</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07577264846620579</v>
+        <v>1.975486500898526</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.7741731626362025</v>
+        <v>0.7292239487331074</v>
       </c>
       <c r="H10">
-        <v>0.5425113287804635</v>
+        <v>0.03005454244828343</v>
       </c>
       <c r="I10">
-        <v>0.5808485761874778</v>
+        <v>0.01900467090158475</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.4331800798381096</v>
       </c>
       <c r="K10">
-        <v>1.463748526137181</v>
+        <v>0.20692273240644</v>
       </c>
       <c r="L10">
-        <v>0.3868017298023858</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -838,43 +892,49 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.795584989413896</v>
+        <v>5.642335489781033</v>
       </c>
       <c r="C11">
-        <v>0.1113389569144232</v>
+        <v>1.791884243691641</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07982026755870564</v>
+        <v>1.283225907736636</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.7912017517215446</v>
+        <v>0.5192285594010855</v>
       </c>
       <c r="H11">
-        <v>0.5440676476910227</v>
+        <v>0.04522570759511879</v>
       </c>
       <c r="I11">
-        <v>0.5824195993054389</v>
+        <v>0.02099722050316899</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3210285800387993</v>
       </c>
       <c r="K11">
-        <v>1.57275718271049</v>
+        <v>0.1249022174949097</v>
       </c>
       <c r="L11">
-        <v>0.4140260889737419</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -885,43 +945,49 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.842670356070556</v>
+        <v>5.77557103203236</v>
       </c>
       <c r="C12">
-        <v>0.1134897642540835</v>
+        <v>1.759073150021322</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.08137175851063816</v>
+        <v>0.7835477383619605</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.7980781507081218</v>
+        <v>0.3634993611050277</v>
       </c>
       <c r="H12">
-        <v>0.5448825118809992</v>
+        <v>0.08072990117182854</v>
       </c>
       <c r="I12">
-        <v>0.5832943632027181</v>
+        <v>0.02090095987968077</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2394785423696675</v>
       </c>
       <c r="K12">
-        <v>1.614222992210131</v>
+        <v>0.08019508581100787</v>
       </c>
       <c r="L12">
-        <v>0.4244240020488803</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -932,43 +998,49 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.832519277070901</v>
+        <v>5.737619160833731</v>
       </c>
       <c r="C13">
-        <v>0.113026095839885</v>
+        <v>1.678585867399363</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08103675590188431</v>
+        <v>0.4036919938457615</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.7965775644092474</v>
+        <v>0.2317882635167692</v>
       </c>
       <c r="H13">
-        <v>0.5446967197065788</v>
+        <v>0.133208106445835</v>
       </c>
       <c r="I13">
-        <v>0.58309318057524</v>
+        <v>0.01945629365145507</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1721063984249298</v>
       </c>
       <c r="K13">
-        <v>1.605283814724828</v>
+        <v>0.05686372666034156</v>
       </c>
       <c r="L13">
-        <v>0.422180516280136</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -979,43 +1051,49 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.799454091383382</v>
+        <v>5.633802440772456</v>
       </c>
       <c r="C14">
-        <v>0.111515703806262</v>
+        <v>1.602561554027545</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07994752408938055</v>
+        <v>0.2108166493600834</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.7917586860084072</v>
+        <v>0.1539206982974974</v>
       </c>
       <c r="H14">
-        <v>0.5441300718238296</v>
+        <v>0.1803658323789108</v>
       </c>
       <c r="I14">
-        <v>0.5824858361757137</v>
+        <v>0.0179908306510006</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1328973118303338</v>
       </c>
       <c r="K14">
-        <v>1.576164690155622</v>
+        <v>0.05227601767362933</v>
       </c>
       <c r="L14">
-        <v>0.4148796952869702</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1026,43 +1104,49 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.779230607626403</v>
+        <v>5.571843672884484</v>
       </c>
       <c r="C15">
-        <v>0.1105918373785357</v>
+        <v>1.575465059350847</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07928283035146322</v>
+        <v>0.172734347191188</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.7888638247543867</v>
+        <v>0.1356997654028902</v>
       </c>
       <c r="H15">
-        <v>0.5438128457495708</v>
+        <v>0.1921302941190959</v>
       </c>
       <c r="I15">
-        <v>0.5821508939719848</v>
+        <v>0.01743034050563086</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1242207647909837</v>
       </c>
       <c r="K15">
-        <v>1.558353563132528</v>
+        <v>0.053276538199311</v>
       </c>
       <c r="L15">
-        <v>0.4104195836636109</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1073,43 +1157,49 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.663772008303113</v>
+        <v>5.222235331594277</v>
       </c>
       <c r="C16">
-        <v>0.1053158051184013</v>
+        <v>1.481161309110234</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07551065778853427</v>
+        <v>0.1671371865746565</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.7731182159288892</v>
+        <v>0.1323082450334283</v>
       </c>
       <c r="H16">
-        <v>0.5424402858442079</v>
+        <v>0.176614472004573</v>
       </c>
       <c r="I16">
-        <v>0.5807839285781924</v>
+        <v>0.01464918701114382</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1283539414291255</v>
       </c>
       <c r="K16">
-        <v>1.456649077976778</v>
+        <v>0.06101931954825623</v>
       </c>
       <c r="L16">
-        <v>0.3850343986957654</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1120,43 +1210,49 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.593303622294883</v>
+        <v>5.009802659131481</v>
       </c>
       <c r="C17">
-        <v>0.1020938237408515</v>
+        <v>1.449037688608769</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07322814226461105</v>
+        <v>0.2511460682234414</v>
       </c>
       <c r="F17">
-        <v>2.164227570872086</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.7641825659000148</v>
+        <v>0.1678342129910746</v>
       </c>
       <c r="H17">
-        <v>0.5419826006958743</v>
+        <v>0.1377748425218499</v>
       </c>
       <c r="I17">
-        <v>0.5804216482620959</v>
+        <v>0.01332630320627892</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.150922921439971</v>
       </c>
       <c r="K17">
-        <v>1.394558163708581</v>
+        <v>0.06782499196219327</v>
       </c>
       <c r="L17">
-        <v>0.3696084169421567</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1167,43 +1263,49 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.552895190606222</v>
+        <v>4.890974086784297</v>
       </c>
       <c r="C18">
-        <v>0.1002454087967308</v>
+        <v>1.463833291721812</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07192638807162055</v>
+        <v>0.4853505856076268</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.7592978371179413</v>
+        <v>0.2568709857218252</v>
       </c>
       <c r="H18">
-        <v>0.5418555834082781</v>
+        <v>0.08568642219293565</v>
       </c>
       <c r="I18">
-        <v>0.58038191452885</v>
+        <v>0.01283237981465923</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1996516101441088</v>
       </c>
       <c r="K18">
-        <v>1.358947001790824</v>
+        <v>0.08365657537992721</v>
       </c>
       <c r="L18">
-        <v>0.3607866807083724</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1214,43 +1316,49 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.539233833626213</v>
+        <v>4.856350793512661</v>
       </c>
       <c r="C19">
-        <v>0.0996203323934779</v>
+        <v>1.523767290834485</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0714874928825644</v>
+        <v>0.9221728417199699</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.7576866905242525</v>
+        <v>0.3980922128298374</v>
       </c>
       <c r="H19">
-        <v>0.5418355143819582</v>
+        <v>0.04343549164735094</v>
       </c>
       <c r="I19">
-        <v>0.5803968363177034</v>
+        <v>0.01362058876815375</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2729058710780521</v>
       </c>
       <c r="K19">
-        <v>1.346906355161025</v>
+        <v>0.117574571637709</v>
       </c>
       <c r="L19">
-        <v>0.3578082417108135</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1261,43 +1369,49 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.600792143574097</v>
+        <v>5.060103074507651</v>
       </c>
       <c r="C20">
-        <v>0.1024363005423368</v>
+        <v>1.697607686187325</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07346996083375146</v>
+        <v>1.909759088994818</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.7651071620237246</v>
+        <v>0.6914316979511739</v>
       </c>
       <c r="H20">
-        <v>0.542017112200682</v>
+        <v>0.02744980933492869</v>
       </c>
       <c r="I20">
-        <v>0.5804426188257068</v>
+        <v>0.01746305583415353</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4177696410163634</v>
       </c>
       <c r="K20">
-        <v>1.401157106090153</v>
+        <v>0.201384869000254</v>
       </c>
       <c r="L20">
-        <v>0.3712452037518261</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1308,43 +1422,49 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.809159848268337</v>
+        <v>5.700352826100243</v>
       </c>
       <c r="C21">
-        <v>0.1119590694902683</v>
+        <v>1.920101565028062</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08026693538617735</v>
+        <v>2.249836073686197</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.79316219463918</v>
+        <v>0.7989203242233032</v>
       </c>
       <c r="H21">
-        <v>0.5442902566367849</v>
+        <v>0.0364824188638293</v>
       </c>
       <c r="I21">
-        <v>0.5826564633165177</v>
+        <v>0.02427975214562661</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.4607325426093354</v>
       </c>
       <c r="K21">
-        <v>1.584712382185131</v>
+        <v>0.212178086677703</v>
       </c>
       <c r="L21">
-        <v>0.4170216345440565</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1355,43 +1475,49 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.9466514582559</v>
+        <v>6.119787699573465</v>
       </c>
       <c r="C22">
-        <v>0.1182388997257959</v>
+        <v>2.056512017425291</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0848192722059764</v>
+        <v>2.421451717285109</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.8140113024073798</v>
+        <v>0.8631666467324379</v>
       </c>
       <c r="H22">
-        <v>0.5470987329257042</v>
+        <v>0.04247317211333179</v>
       </c>
       <c r="I22">
-        <v>0.5857451603983392</v>
+        <v>0.02896904408575907</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.4858964394141765</v>
       </c>
       <c r="K22">
-        <v>1.705778866156152</v>
+        <v>0.2180476861824623</v>
       </c>
       <c r="L22">
-        <v>0.4474610473943841</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1402,43 +1528,49 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.873138668804131</v>
+        <v>5.89596847036745</v>
       </c>
       <c r="C23">
-        <v>0.1148814031147225</v>
+        <v>1.978929129628852</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.08237895077902024</v>
+        <v>2.329790583788906</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.8026413098950798</v>
+        <v>0.8352836592192006</v>
       </c>
       <c r="H23">
-        <v>0.545473166857704</v>
+        <v>0.03924261553440811</v>
       </c>
       <c r="I23">
-        <v>0.5839393073284356</v>
+        <v>0.0261927152522734</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.4757484159000569</v>
       </c>
       <c r="K23">
-        <v>1.641052574339227</v>
+        <v>0.2177586860763085</v>
       </c>
       <c r="L23">
-        <v>0.4311637103597121</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1449,43 +1581,49 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.597406259042145</v>
+        <v>5.051256400365162</v>
       </c>
       <c r="C24">
-        <v>0.1022814546374278</v>
+        <v>1.695553070523204</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07336060209363637</v>
+        <v>1.986077693169591</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.7646883682792662</v>
+        <v>0.7230714541377523</v>
       </c>
       <c r="H24">
-        <v>0.5420010867717195</v>
+        <v>0.02800528627239496</v>
       </c>
       <c r="I24">
-        <v>0.5804326145589584</v>
+        <v>0.0171873027722409</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.4339281947225828</v>
       </c>
       <c r="K24">
-        <v>1.398173459302228</v>
+        <v>0.2137218049457488</v>
       </c>
       <c r="L24">
-        <v>0.370505067198124</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1496,43 +1634,49 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.304586487560385</v>
+        <v>4.145129931452232</v>
       </c>
       <c r="C25">
-        <v>0.08886685026649133</v>
+        <v>1.394630657356231</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06405114913889776</v>
+        <v>1.621408727136512</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.7333735481574166</v>
+        <v>0.6096131245355991</v>
       </c>
       <c r="H25">
-        <v>0.5434110719969993</v>
+        <v>0.01773549139181796</v>
       </c>
       <c r="I25">
-        <v>0.5830293702435938</v>
+        <v>0.009615270699396383</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3927668830573197</v>
       </c>
       <c r="K25">
-        <v>1.139989578173555</v>
+        <v>0.2128284916381666</v>
       </c>
       <c r="L25">
-        <v>0.3069864242124112</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.480687265789243</v>
+        <v>3.477487941702691</v>
       </c>
       <c r="C2">
-        <v>1.165017874056105</v>
+        <v>1.212092596562343</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.356783115317384</v>
+        <v>1.35258044045942</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.5470122958727899</v>
+        <v>0.4520429619206681</v>
       </c>
       <c r="H2">
-        <v>0.01148004009252734</v>
+        <v>0.01101746354033142</v>
       </c>
       <c r="I2">
-        <v>0.004972642914652603</v>
+        <v>0.004707152486436605</v>
       </c>
       <c r="J2">
-        <v>0.373390404073902</v>
+        <v>0.3813026369307835</v>
       </c>
       <c r="K2">
-        <v>0.2218314440370932</v>
+        <v>0.1880393896459651</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1223239256753477</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.03512792902154338</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -474,46 +480,52 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.030712987717664</v>
+        <v>3.030713300184402</v>
       </c>
       <c r="C3">
-        <v>1.01708493056492</v>
+        <v>1.052079422005335</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.178868447527876</v>
+        <v>1.176746434461563</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.4978083690964752</v>
+        <v>0.4182348723409177</v>
       </c>
       <c r="H3">
-        <v>0.007880425163070026</v>
+        <v>0.007670392445043306</v>
       </c>
       <c r="I3">
-        <v>0.002845570953940779</v>
+        <v>0.002924263844883868</v>
       </c>
       <c r="J3">
-        <v>0.3568810040201669</v>
+        <v>0.3698700451668628</v>
       </c>
       <c r="K3">
-        <v>0.2250280156907678</v>
+        <v>0.196153643259052</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.128876891965465</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03509529116856491</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -527,46 +539,52 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.75445023678725</v>
+        <v>2.756134726889059</v>
       </c>
       <c r="C4">
-        <v>0.9269315835264251</v>
+        <v>0.9546372036709272</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.070180527340085</v>
+        <v>1.069207649190346</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.139972825279798</v>
       </c>
       <c r="G4">
-        <v>0.468318044286022</v>
+        <v>0.3980482500144973</v>
       </c>
       <c r="H4">
-        <v>0.005950816572760198</v>
+        <v>0.005862378155535697</v>
       </c>
       <c r="I4">
-        <v>0.001864313413996843</v>
+        <v>0.002074159481650462</v>
       </c>
       <c r="J4">
-        <v>0.3471807599520389</v>
+        <v>0.3628816656767526</v>
       </c>
       <c r="K4">
-        <v>0.2274066533306254</v>
+        <v>0.2014251068296549</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1330383816184586</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03568280096616849</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -580,46 +598,52 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.641806664015064</v>
+        <v>2.644118479393057</v>
       </c>
       <c r="C5">
-        <v>0.8914593353469513</v>
+        <v>0.9161099983745373</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.02597672605269</v>
+        <v>1.025446560834254</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.4548034563512857</v>
+        <v>0.3886056152735904</v>
       </c>
       <c r="H5">
-        <v>0.005227076371853157</v>
+        <v>0.00518081075729504</v>
       </c>
       <c r="I5">
-        <v>0.001597028870523598</v>
+        <v>0.00185488819664581</v>
       </c>
       <c r="J5">
-        <v>0.3424660253119924</v>
+        <v>0.3593129943945144</v>
       </c>
       <c r="K5">
-        <v>0.2277059678181175</v>
+        <v>0.2030578844331057</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.134461382804524</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03593754875995447</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -633,46 +657,52 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.623054163629092</v>
+        <v>2.625469553149401</v>
       </c>
       <c r="C6">
-        <v>0.8869481982920888</v>
+        <v>0.9109482794013672</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.018615488842627</v>
+        <v>1.018160339942867</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.4505503712937582</v>
+        <v>0.3854129988277748</v>
       </c>
       <c r="H6">
-        <v>0.00510830014669339</v>
+        <v>0.005068869713813706</v>
       </c>
       <c r="I6">
-        <v>0.001635068733910394</v>
+        <v>0.00191709302073928</v>
       </c>
       <c r="J6">
-        <v>0.340638942917181</v>
+        <v>0.357837396097139</v>
       </c>
       <c r="K6">
-        <v>0.2268299441824588</v>
+        <v>0.2026261924867203</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1343270615011924</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.03582738496794668</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -686,46 +716,52 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.752803803254096</v>
+        <v>2.754435172668252</v>
       </c>
       <c r="C7">
-        <v>0.930206682621872</v>
+        <v>0.9558992183782493</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.06950910439015</v>
+        <v>1.068485954129187</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.4626109905974545</v>
+        <v>0.3952684805978492</v>
       </c>
       <c r="H7">
-        <v>0.005933988277516788</v>
+        <v>0.005841062696505084</v>
       </c>
       <c r="I7">
-        <v>0.002057360047779788</v>
+        <v>0.002307582227442317</v>
       </c>
       <c r="J7">
-        <v>0.3442465785992823</v>
+        <v>0.3542784327115385</v>
       </c>
       <c r="K7">
-        <v>0.2248640360397616</v>
+        <v>0.198660657257566</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1316236974533531</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.03501209111486414</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -739,46 +775,52 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.32532873085546</v>
+        <v>3.323063097710133</v>
       </c>
       <c r="C8">
-        <v>1.11887427653653</v>
+        <v>1.15592535907291</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.295201315638849</v>
+        <v>1.29153542289113</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.390742831773494</v>
       </c>
       <c r="G8">
-        <v>0.5225373852814243</v>
+        <v>0.4404538355466627</v>
       </c>
       <c r="H8">
-        <v>0.01016582888847649</v>
+        <v>0.009775593931680378</v>
       </c>
       <c r="I8">
-        <v>0.004394329062533231</v>
+        <v>0.00429877041911908</v>
       </c>
       <c r="J8">
-        <v>0.36380012028404</v>
+        <v>0.3541647179021084</v>
       </c>
       <c r="K8">
-        <v>0.2194818837585295</v>
+        <v>0.1855379904303156</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1221023580104657</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.03347534028690724</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -792,46 +834,52 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.450152264314681</v>
+        <v>4.437788058818001</v>
       </c>
       <c r="C9">
-        <v>1.488545940388406</v>
+        <v>1.555212470310778</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.743734362799472</v>
+        <v>1.733867433975036</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.6569535100035608</v>
+        <v>0.5360786469908732</v>
       </c>
       <c r="H9">
-        <v>0.02099581471300405</v>
+        <v>0.01973371913657163</v>
       </c>
       <c r="I9">
-        <v>0.01160827705098644</v>
+        <v>0.01004515580922671</v>
       </c>
       <c r="J9">
-        <v>0.4113118426199804</v>
+        <v>0.3804008277604964</v>
       </c>
       <c r="K9">
-        <v>0.2172193552174946</v>
+        <v>0.1688373467560957</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1076809981672664</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.03725835536891609</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -845,46 +893,52 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.278512675138415</v>
+        <v>5.25624240271992</v>
       </c>
       <c r="C10">
-        <v>1.756782854452354</v>
+        <v>1.831951231516427</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.975486500898526</v>
+        <v>1.960141897789541</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.7292239487331074</v>
+        <v>0.5979941680357541</v>
       </c>
       <c r="H10">
-        <v>0.03005454244828343</v>
+        <v>0.02790572252858547</v>
       </c>
       <c r="I10">
-        <v>0.01900467090158475</v>
+        <v>0.01579200937384861</v>
       </c>
       <c r="J10">
-        <v>0.4331800798381096</v>
+        <v>0.3557233477253448</v>
       </c>
       <c r="K10">
-        <v>0.20692273240644</v>
+        <v>0.147403458283808</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09386612115329918</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.03884692143214075</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -898,46 +952,52 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.642335489781033</v>
+        <v>5.616978321308466</v>
       </c>
       <c r="C11">
-        <v>1.791884243691641</v>
+        <v>1.821330574818774</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.283225907736636</v>
+        <v>1.26941389863515</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.5192285594010855</v>
+        <v>0.45843360801274</v>
       </c>
       <c r="H11">
-        <v>0.04522570759511879</v>
+        <v>0.04303702724105563</v>
       </c>
       <c r="I11">
-        <v>0.02099722050316899</v>
+        <v>0.01740393813334506</v>
       </c>
       <c r="J11">
-        <v>0.3210285800387993</v>
+        <v>0.2235596339445109</v>
       </c>
       <c r="K11">
-        <v>0.1249022174949097</v>
+        <v>0.09020801857655414</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.07234415292302465</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.01873365917768766</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -951,46 +1011,52 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.77557103203236</v>
+        <v>5.749851873591012</v>
       </c>
       <c r="C12">
-        <v>1.759073150021322</v>
+        <v>1.755464399747723</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7835477383619605</v>
+        <v>0.7720144607578021</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>2.518780942186353</v>
       </c>
       <c r="G12">
-        <v>0.3634993611050277</v>
+        <v>0.3438881950582555</v>
       </c>
       <c r="H12">
-        <v>0.08072990117182854</v>
+        <v>0.0786675412698159</v>
       </c>
       <c r="I12">
-        <v>0.02090095987968077</v>
+        <v>0.01727887729821553</v>
       </c>
       <c r="J12">
-        <v>0.2394785423696675</v>
+        <v>0.1599959227378349</v>
       </c>
       <c r="K12">
-        <v>0.08019508581100787</v>
+        <v>0.06555145437498133</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.06451459900097534</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.008301550071553088</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1004,46 +1070,52 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.737619160833731</v>
+        <v>5.713837409869143</v>
       </c>
       <c r="C13">
-        <v>1.678585867399363</v>
+        <v>1.653151067598856</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4036919938457615</v>
+        <v>0.3948377505765208</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.2317882635167692</v>
+        <v>0.2341404185628377</v>
       </c>
       <c r="H13">
-        <v>0.133208106445835</v>
+        <v>0.1314041909715513</v>
       </c>
       <c r="I13">
-        <v>0.01945629365145507</v>
+        <v>0.01618447533036971</v>
       </c>
       <c r="J13">
-        <v>0.1721063984249298</v>
+        <v>0.1320750152821581</v>
       </c>
       <c r="K13">
-        <v>0.05686372666034156</v>
+        <v>0.05803858873506235</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06307676849541455</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.00339913424262539</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1057,46 +1129,52 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.633802440772456</v>
+        <v>5.61226995904849</v>
       </c>
       <c r="C14">
-        <v>1.602561554027545</v>
+        <v>1.566509360335431</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2108166493600834</v>
+        <v>0.2037808793042615</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>2.457142640142266</v>
       </c>
       <c r="G14">
-        <v>0.1539206982974974</v>
+        <v>0.1637233083817762</v>
       </c>
       <c r="H14">
-        <v>0.1803658323789108</v>
+        <v>0.1787790132426323</v>
       </c>
       <c r="I14">
-        <v>0.0179908306510006</v>
+        <v>0.01511979989524992</v>
       </c>
       <c r="J14">
-        <v>0.1328973118303338</v>
+        <v>0.1227914415272267</v>
       </c>
       <c r="K14">
-        <v>0.05227601767362933</v>
+        <v>0.05997660192290821</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.0643448355973586</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.002691438959060377</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1110,46 +1188,52 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.571843672884484</v>
+        <v>5.55134415487089</v>
       </c>
       <c r="C15">
-        <v>1.575465059350847</v>
+        <v>1.538533151232969</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.172734347191188</v>
+        <v>0.1662226782978848</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.1356997654028902</v>
+        <v>0.1456759492517321</v>
       </c>
       <c r="H15">
-        <v>0.1921302941190959</v>
+        <v>0.1906288899664759</v>
       </c>
       <c r="I15">
-        <v>0.01743034050563086</v>
+        <v>0.01475864488270595</v>
       </c>
       <c r="J15">
-        <v>0.1242207647909837</v>
+        <v>0.1232075110922501</v>
       </c>
       <c r="K15">
-        <v>0.053276538199311</v>
+        <v>0.06173150887070644</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06496637363162794</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.002962841038022024</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1163,46 +1247,52 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.222235331594277</v>
+        <v>5.206386173419503</v>
       </c>
       <c r="C16">
-        <v>1.481161309110234</v>
+        <v>1.459550274207118</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1671371865746565</v>
+        <v>0.1618008267271236</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.1323082450334283</v>
+        <v>0.1325178789336974</v>
       </c>
       <c r="H16">
-        <v>0.176614472004573</v>
+        <v>0.1754569445088237</v>
       </c>
       <c r="I16">
-        <v>0.01464918701114382</v>
+        <v>0.0127532459996651</v>
       </c>
       <c r="J16">
-        <v>0.1283539414291255</v>
+        <v>0.151005088387258</v>
       </c>
       <c r="K16">
-        <v>0.06101931954825623</v>
+        <v>0.06782706651764903</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.06619338418048981</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.004412477768628853</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1216,46 +1306,52 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.009802659131481</v>
+        <v>4.996192134129274</v>
       </c>
       <c r="C17">
-        <v>1.449037688608769</v>
+        <v>1.442404438850872</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2511460682234414</v>
+        <v>0.245938767523171</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.1678342129910746</v>
+        <v>0.1574585179116852</v>
       </c>
       <c r="H17">
-        <v>0.1377748425218499</v>
+        <v>0.1367617575444342</v>
       </c>
       <c r="I17">
-        <v>0.01332630320627892</v>
+        <v>0.01179443241401312</v>
       </c>
       <c r="J17">
-        <v>0.150922921439971</v>
+        <v>0.1813736772079579</v>
       </c>
       <c r="K17">
-        <v>0.06782499196219327</v>
+        <v>0.07284682078921423</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06770297993073227</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.005772525035462661</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1269,46 +1365,52 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.890974086784297</v>
+        <v>4.877984027744105</v>
       </c>
       <c r="C18">
-        <v>1.463833291721812</v>
+        <v>1.477904020879294</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4853505856076268</v>
+        <v>0.4793564582560847</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.2568709857218252</v>
+        <v>0.2264586997042883</v>
       </c>
       <c r="H18">
-        <v>0.08568642219293565</v>
+        <v>0.08467098472407741</v>
       </c>
       <c r="I18">
-        <v>0.01283237981465923</v>
+        <v>0.01134259384454772</v>
       </c>
       <c r="J18">
-        <v>0.1996516101441088</v>
+        <v>0.2264427821344839</v>
       </c>
       <c r="K18">
-        <v>0.08365657537992721</v>
+        <v>0.08325168148000373</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.0718278908293275</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.009234491342475337</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1322,46 +1424,52 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.856350793512661</v>
+        <v>4.842519561107451</v>
       </c>
       <c r="C19">
-        <v>1.523767290834485</v>
+        <v>1.562833163493167</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.9221728417199699</v>
+        <v>0.9143645506194389</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.3980922128298374</v>
+        <v>0.3348407802760249</v>
       </c>
       <c r="H19">
-        <v>0.04343549164735094</v>
+        <v>0.04226363737960526</v>
       </c>
       <c r="I19">
-        <v>0.01362058876815375</v>
+        <v>0.01200755640121098</v>
       </c>
       <c r="J19">
-        <v>0.2729058710780521</v>
+        <v>0.2854189967273726</v>
       </c>
       <c r="K19">
-        <v>0.117574571637709</v>
+        <v>0.1041673475976985</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08009183360868821</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01700792265506834</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1375,46 +1483,52 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.060103074507651</v>
+        <v>5.041026983888457</v>
       </c>
       <c r="C20">
-        <v>1.697607686187325</v>
+        <v>1.775132516747931</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.909759088994818</v>
+        <v>1.896249768835943</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.6914316979511739</v>
+        <v>0.5603432984899115</v>
       </c>
       <c r="H20">
-        <v>0.02744980933492869</v>
+        <v>0.02559728562660357</v>
       </c>
       <c r="I20">
-        <v>0.01746305583415353</v>
+        <v>0.01495855911402622</v>
       </c>
       <c r="J20">
-        <v>0.4177696410163634</v>
+        <v>0.3750920587062012</v>
       </c>
       <c r="K20">
-        <v>0.201384869000254</v>
+        <v>0.1501720228238632</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09636452732297052</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.03722275344454573</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1428,46 +1542,52 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.700352826100243</v>
+        <v>5.670439854916651</v>
       </c>
       <c r="C21">
-        <v>1.920101565028062</v>
+        <v>1.978314203090406</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.249836073686197</v>
+        <v>2.229388799607563</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.7989203242233032</v>
+        <v>0.6838355854674063</v>
       </c>
       <c r="H21">
-        <v>0.0364824188638293</v>
+        <v>0.03354874974660671</v>
       </c>
       <c r="I21">
-        <v>0.02427975214562661</v>
+        <v>0.01987848003632386</v>
       </c>
       <c r="J21">
-        <v>0.4607325426093354</v>
+        <v>0.27797423126664</v>
       </c>
       <c r="K21">
-        <v>0.212178086677703</v>
+        <v>0.1316962165486153</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08563718538933962</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.03794165919537917</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1481,46 +1601,52 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.119787699573465</v>
+        <v>6.082074329588806</v>
       </c>
       <c r="C22">
-        <v>2.056512017425291</v>
+        <v>2.097575392501255</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.421451717285109</v>
+        <v>2.396297607537278</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.8631666467324379</v>
+        <v>0.7655627371444353</v>
       </c>
       <c r="H22">
-        <v>0.04247317211333179</v>
+        <v>0.03876288384970294</v>
       </c>
       <c r="I22">
-        <v>0.02896904408575907</v>
+        <v>0.02307488964398541</v>
       </c>
       <c r="J22">
-        <v>0.4858964394141765</v>
+        <v>0.2179196496179756</v>
       </c>
       <c r="K22">
-        <v>0.2180476861824623</v>
+        <v>0.1186868902713165</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.078704413543079</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.0380779961150246</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1534,46 +1660,52 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.89596847036745</v>
+        <v>5.862684152864801</v>
       </c>
       <c r="C23">
-        <v>1.978929129628852</v>
+        <v>2.034172775650802</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.329790583788906</v>
+        <v>2.307343792243245</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.8352836592192006</v>
+        <v>0.7215761425856613</v>
       </c>
       <c r="H23">
-        <v>0.03924261553440811</v>
+        <v>0.03597844092782054</v>
       </c>
       <c r="I23">
-        <v>0.0261927152522734</v>
+        <v>0.02107549683336352</v>
       </c>
       <c r="J23">
-        <v>0.4757484159000569</v>
+        <v>0.2618147370142054</v>
       </c>
       <c r="K23">
-        <v>0.2177586860763085</v>
+        <v>0.128994205203206</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08344197320092128</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.03947804303078328</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1587,46 +1719,52 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.051256400365162</v>
+        <v>5.032027221725059</v>
       </c>
       <c r="C24">
-        <v>1.695553070523204</v>
+        <v>1.776779420765934</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.986077693169591</v>
+        <v>1.97221122950765</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572853</v>
       </c>
       <c r="G24">
-        <v>0.7230714541377523</v>
+        <v>0.5839455891451735</v>
       </c>
       <c r="H24">
-        <v>0.02800528627239496</v>
+        <v>0.02611674838673883</v>
       </c>
       <c r="I24">
-        <v>0.0171873027722409</v>
+        <v>0.01454849837854333</v>
       </c>
       <c r="J24">
-        <v>0.4339281947225828</v>
+        <v>0.3881572079667421</v>
       </c>
       <c r="K24">
-        <v>0.2137218049457488</v>
+        <v>0.1581025205459099</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.0993335731555316</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.04025984928640547</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1640,46 +1778,52 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.145129931452232</v>
+        <v>4.136002252236324</v>
       </c>
       <c r="C25">
-        <v>1.394630657356231</v>
+        <v>1.454821917288996</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.621408727136512</v>
+        <v>1.613507120575846</v>
       </c>
       <c r="F25">
-        <v>1.757113814925091</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.6096131245355991</v>
+        <v>0.4989043209490518</v>
       </c>
       <c r="H25">
-        <v>0.01773549139181796</v>
+        <v>0.01676372984657382</v>
       </c>
       <c r="I25">
-        <v>0.009615270699396383</v>
+        <v>0.008648907729962296</v>
       </c>
       <c r="J25">
-        <v>0.3927668830573197</v>
+        <v>0.3776078782867103</v>
       </c>
       <c r="K25">
-        <v>0.2128284916381666</v>
+        <v>0.1710273383223573</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1106399722053659</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.03496323235703969</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
